--- a/docs/Examples/Fitting_Fermi_Diads/Example1b_CO2_Fluid_Inclusions/Weak_Diads.xlsx
+++ b/docs/Examples/Fitting_Fermi_Diads/Example1b_CO2_Fluid_Inclusions/Weak_Diads.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AU17"/>
+  <dimension ref="A1:AW17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -667,6 +667,16 @@
       <c r="AU1" s="1" t="inlineStr">
         <is>
           <t>Diad2_Remigi2021_BSF</t>
+        </is>
+      </c>
+      <c r="AV1" s="1" t="inlineStr">
+        <is>
+          <t>Diad1_PDF_Model</t>
+        </is>
+      </c>
+      <c r="AW1" s="1" t="inlineStr">
+        <is>
+          <t>Diad2_PDF_Model</t>
         </is>
       </c>
     </row>
@@ -800,6 +810,16 @@
       <c r="AU2" t="n">
         <v>0.0004185099443979589</v>
       </c>
+      <c r="AV2" t="inlineStr">
+        <is>
+          <t>PseudoVoigtModel</t>
+        </is>
+      </c>
+      <c r="AW2" t="inlineStr">
+        <is>
+          <t>PseudoVoigtModel</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -931,6 +951,16 @@
       <c r="AU3" t="n">
         <v>0.0004555797481215617</v>
       </c>
+      <c r="AV3" t="inlineStr">
+        <is>
+          <t>PseudoVoigtModel</t>
+        </is>
+      </c>
+      <c r="AW3" t="inlineStr">
+        <is>
+          <t>PseudoVoigtModel</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1061,6 +1091,16 @@
       </c>
       <c r="AU4" t="n">
         <v>0.0003130828167376919</v>
+      </c>
+      <c r="AV4" t="inlineStr">
+        <is>
+          <t>PseudoVoigtModel</t>
+        </is>
+      </c>
+      <c r="AW4" t="inlineStr">
+        <is>
+          <t>PseudoVoigtModel</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -1181,6 +1221,16 @@
       <c r="AU5" t="n">
         <v>0.009673999294495873</v>
       </c>
+      <c r="AV5" t="inlineStr">
+        <is>
+          <t>PseudoVoigtModel</t>
+        </is>
+      </c>
+      <c r="AW5" t="inlineStr">
+        <is>
+          <t>PseudoVoigtModel</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1312,6 +1362,16 @@
       <c r="AU6" t="n">
         <v>0.0008885840855582906</v>
       </c>
+      <c r="AV6" t="inlineStr">
+        <is>
+          <t>PseudoVoigtModel</t>
+        </is>
+      </c>
+      <c r="AW6" t="inlineStr">
+        <is>
+          <t>PseudoVoigtModel</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1443,6 +1503,16 @@
       <c r="AU7" t="n">
         <v>0.001366294128249545</v>
       </c>
+      <c r="AV7" t="inlineStr">
+        <is>
+          <t>PseudoVoigtModel</t>
+        </is>
+      </c>
+      <c r="AW7" t="inlineStr">
+        <is>
+          <t>PseudoVoigtModel</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1568,6 +1638,16 @@
       <c r="AU8" t="n">
         <v>0.002122158418979997</v>
       </c>
+      <c r="AV8" t="inlineStr">
+        <is>
+          <t>PseudoVoigtModel</t>
+        </is>
+      </c>
+      <c r="AW8" t="inlineStr">
+        <is>
+          <t>PseudoVoigtModel</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1693,6 +1773,16 @@
       <c r="AU9" t="n">
         <v>0.001836225772890855</v>
       </c>
+      <c r="AV9" t="inlineStr">
+        <is>
+          <t>PseudoVoigtModel</t>
+        </is>
+      </c>
+      <c r="AW9" t="inlineStr">
+        <is>
+          <t>PseudoVoigtModel</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1824,6 +1914,16 @@
       <c r="AU10" t="n">
         <v>0.0003006820035996373</v>
       </c>
+      <c r="AV10" t="inlineStr">
+        <is>
+          <t>PseudoVoigtModel</t>
+        </is>
+      </c>
+      <c r="AW10" t="inlineStr">
+        <is>
+          <t>PseudoVoigtModel</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1955,6 +2055,16 @@
       <c r="AU11" t="n">
         <v>0.0003537435869755437</v>
       </c>
+      <c r="AV11" t="inlineStr">
+        <is>
+          <t>PseudoVoigtModel</t>
+        </is>
+      </c>
+      <c r="AW11" t="inlineStr">
+        <is>
+          <t>PseudoVoigtModel</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2086,6 +2196,16 @@
       <c r="AU12" t="n">
         <v>0.0009513085296379747</v>
       </c>
+      <c r="AV12" t="inlineStr">
+        <is>
+          <t>PseudoVoigtModel</t>
+        </is>
+      </c>
+      <c r="AW12" t="inlineStr">
+        <is>
+          <t>PseudoVoigtModel</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -2217,6 +2337,16 @@
       <c r="AU13" t="n">
         <v>0.001258444643877306</v>
       </c>
+      <c r="AV13" t="inlineStr">
+        <is>
+          <t>PseudoVoigtModel</t>
+        </is>
+      </c>
+      <c r="AW13" t="inlineStr">
+        <is>
+          <t>PseudoVoigtModel</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2348,6 +2478,16 @@
       <c r="AU14" t="n">
         <v>0.001747704912994523</v>
       </c>
+      <c r="AV14" t="inlineStr">
+        <is>
+          <t>PseudoVoigtModel</t>
+        </is>
+      </c>
+      <c r="AW14" t="inlineStr">
+        <is>
+          <t>PseudoVoigtModel</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2479,6 +2619,16 @@
       <c r="AU15" t="n">
         <v>0.000919340054609549</v>
       </c>
+      <c r="AV15" t="inlineStr">
+        <is>
+          <t>PseudoVoigtModel</t>
+        </is>
+      </c>
+      <c r="AW15" t="inlineStr">
+        <is>
+          <t>PseudoVoigtModel</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2610,6 +2760,16 @@
       <c r="AU16" t="n">
         <v>0.00152434322579094</v>
       </c>
+      <c r="AV16" t="inlineStr">
+        <is>
+          <t>PseudoVoigtModel</t>
+        </is>
+      </c>
+      <c r="AW16" t="inlineStr">
+        <is>
+          <t>PseudoVoigtModel</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2741,6 +2901,16 @@
       <c r="AU17" t="n">
         <v>0.001203286975286477</v>
       </c>
+      <c r="AV17" t="inlineStr">
+        <is>
+          <t>PseudoVoigtModel</t>
+        </is>
+      </c>
+      <c r="AW17" t="inlineStr">
+        <is>
+          <t>PseudoVoigtModel</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
